--- a/Prueba 2/Registro de Defectos.xlsx
+++ b/Prueba 2/Registro de Defectos.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcela\Desktop\2021\Duoc\Semestre II\PDA221_CSY4111\PDA221_CSY4111\Prueba 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Desktop\CALIDAD_DE_SOFTWARE-main\CALIDAD_DE_SOFTWARE-main\Prueba 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7700" windowHeight="4430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7905"/>
   </bookViews>
   <sheets>
-    <sheet name="NETBEANS y Junit" sheetId="2" r:id="rId1"/>
+    <sheet name="Registro de defectos" sheetId="4" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Reporte de Defectos</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>Estado</t>
-  </si>
-  <si>
-    <t>Nombre proyecto:</t>
-  </si>
-  <si>
-    <t>Fecha:</t>
-  </si>
-  <si>
-    <t>Herramienta utilizada:</t>
   </si>
   <si>
     <t>Medida Correctiva</t>
@@ -106,7 +97,106 @@
     <t>Estado del defecto</t>
   </si>
   <si>
-    <t>Nombre alumnos:</t>
+    <t>Solicitado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear metodo que imprima resultado de precioTotalCompra </t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Incluir el resto de los datos en el metodo</t>
+  </si>
+  <si>
+    <t>Restringir ingreso de tipo de FrutaVerdura a la nomenclatura correspondiente de 2 letras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar monto estatico por parametro iva de la interfaz IMontos </t>
+  </si>
+  <si>
+    <t>Clase Producto contiene metodos que no se piden ni se usan</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>Ingresar descuento en base a categoria</t>
+  </si>
+  <si>
+    <t>precioTotalCompra() en CarritoCompra no tiene metodo para imprimir precio</t>
+  </si>
+  <si>
+    <t>toString() en FrutaVerdura solo muestra tipo de fruta</t>
+  </si>
+  <si>
+    <t>calcularMontoIva() en FrutaVerdura es realizado por un valor estatico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toString() en FrutaVerdura y Producto no se pide en modelo de clases </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar metodos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar metodos hashCode y equals </t>
+  </si>
+  <si>
+    <t>agregarProducto() en CarritoCompra no verifica que no se repita el nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar restricción que verifique que no se repita el nombre de producto a la hora de agregar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">quitarProducto() en CarritoCompra elimina en base al objeto y no el nombre </t>
+  </si>
+  <si>
+    <t>Agregar restricción que verifique el nombre del objeto a la hora de eliminarlo</t>
+  </si>
+  <si>
+    <t>setTipo() en FrutaVerdura no tiene restricciones de input</t>
+  </si>
+  <si>
+    <t>setDescuentoCategoria() en Carne obtiene valores manuamente y no en base a categoria</t>
+  </si>
+  <si>
+    <t>Nombre proyecto: Supermercado, "Number One"</t>
+  </si>
+  <si>
+    <t>Fecha: 25/10/2021</t>
+  </si>
+  <si>
+    <t>Herramienta utilizada: NetBeans 12.4, pruebas de caja negra</t>
+  </si>
+  <si>
+    <t>Nombre alumnos: Matias Luarte - Vicente zurita</t>
+  </si>
+  <si>
+    <t>CP01</t>
+  </si>
+  <si>
+    <t>CP02</t>
+  </si>
+  <si>
+    <t>CP03</t>
+  </si>
+  <si>
+    <t>CP04</t>
+  </si>
+  <si>
+    <t>CP05</t>
+  </si>
+  <si>
+    <t>CP06</t>
+  </si>
+  <si>
+    <t>CP07</t>
+  </si>
+  <si>
+    <t>CP08</t>
+  </si>
+  <si>
+    <t>CP09</t>
   </si>
 </sst>
 </file>
@@ -263,9 +353,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9726,236 +9815,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G29"/>
+  <dimension ref="C2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="4.1796875" customWidth="1"/>
-    <col min="3" max="3" width="62.54296875" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="82" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B1" s="15" t="s">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C4" t="s">
-        <v>7</v>
+    <row r="11" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>8</v>
+    <row r="12" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
+    <row r="13" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>1</v>
+    <row r="15" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>52</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>2</v>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3" t="s">
+        <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
+      <c r="H15" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+    <row r="16" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="11" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="12" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="13" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9967,83 +10058,83 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.1796875" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="2:16" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="5" t="s">
-        <v>24</v>
+    <row r="2" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="6" t="s">
+    <row r="4" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="11" t="s">
+    <row r="5" spans="2:16" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="14" t="s">
+    <row r="6" spans="2:16" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9" t="s">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="J9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Prueba 2/Registro de Defectos.xlsx
+++ b/Prueba 2/Registro de Defectos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Desktop\CALIDAD_DE_SOFTWARE-main\CALIDAD_DE_SOFTWARE-main\Prueba 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\CALIDAD_DE_SOFTWARE\Prueba 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Reporte de Defectos</t>
   </si>
@@ -142,18 +142,6 @@
     <t xml:space="preserve">Eliminar metodos hashCode y equals </t>
   </si>
   <si>
-    <t>agregarProducto() en CarritoCompra no verifica que no se repita el nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agregar restricción que verifique que no se repita el nombre de producto a la hora de agregar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">quitarProducto() en CarritoCompra elimina en base al objeto y no el nombre </t>
-  </si>
-  <si>
-    <t>Agregar restricción que verifique el nombre del objeto a la hora de eliminarlo</t>
-  </si>
-  <si>
     <t>setTipo() en FrutaVerdura no tiene restricciones de input</t>
   </si>
   <si>
@@ -191,12 +179,6 @@
   </si>
   <si>
     <t>CP07</t>
-  </si>
-  <si>
-    <t>CP08</t>
-  </si>
-  <si>
-    <t>CP09</t>
   </si>
 </sst>
 </file>
@@ -9818,7 +9800,7 @@
   <dimension ref="C2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9841,22 +9823,22 @@
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9882,10 +9864,10 @@
     </row>
     <row r="11" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
@@ -9900,7 +9882,7 @@
     </row>
     <row r="12" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>35</v>
@@ -9918,7 +9900,7 @@
     </row>
     <row r="13" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
@@ -9936,7 +9918,7 @@
     </row>
     <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>33</v>
@@ -9954,10 +9936,10 @@
     </row>
     <row r="15" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
@@ -9972,7 +9954,7 @@
     </row>
     <row r="16" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>34</v>
@@ -9990,7 +9972,7 @@
     </row>
     <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>29</v>
@@ -10007,40 +9989,20 @@
       </c>
     </row>
     <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Prueba 2/Registro de Defectos.xlsx
+++ b/Prueba 2/Registro de Defectos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Reporte de Defectos</t>
   </si>
@@ -179,6 +179,24 @@
   </si>
   <si>
     <t>CP07</t>
+  </si>
+  <si>
+    <t>CP08</t>
+  </si>
+  <si>
+    <t>Creacion de objeto Carne y FrutaVerdura permite valores inferiores a 0 en cantidad y precio</t>
+  </si>
+  <si>
+    <t>Crear restricciones en métodos set que no permitan valores inferiores a 0</t>
+  </si>
+  <si>
+    <t>CP09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto Carne permite ingresar categorias distintas a A-B-C </t>
+  </si>
+  <si>
+    <t>Crear restricciones que no permitan ingresar categorias fuera del modelo de negocios</t>
   </si>
 </sst>
 </file>
@@ -9800,13 +9818,13 @@
   <dimension ref="C2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="82" customWidth="1"/>
+    <col min="4" max="4" width="91.85546875" customWidth="1"/>
     <col min="5" max="5" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="84.5703125" customWidth="1"/>
   </cols>
@@ -9989,20 +10007,40 @@
       </c>
     </row>
     <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Prueba 2/Registro de Defectos.xlsx
+++ b/Prueba 2/Registro de Defectos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias\Documents\GitHub\CALIDAD_DE_SOFTWARE\Prueba 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2884d8d705fa78f8/Documentos/GitHub/CALIDAD_DE_SOFTWARE/Prueba 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5B315B3C-C0FB-445C-8AB7-F68F6B9E7C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7905"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de defectos" sheetId="4" r:id="rId1"/>
@@ -202,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1220,10 +1221,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>Tipos de defectos</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1257,10 +1257,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>Documentación</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1294,10 +1293,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>Código</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1331,10 +1329,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>Integración</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1368,10 +1365,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>Datos</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1405,10 +1401,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>Funcionalidad</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1442,10 +1437,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>Defectos detectados en documentos y diseños del proyecto.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1479,10 +1473,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>Defectos asociados al código y su estructura.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1516,10 +1509,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>Defectos asociados a la integración de la aplicación, ya sea con módulos del mismo sistema u otros software.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1553,10 +1545,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>Defectos asociados a problemas de datos.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1590,10 +1581,9 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" dirty="0"/>
             <a:t>El software no cumple con la funcionalidad requerida.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" dirty="0"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
@@ -1630,24 +1620,10 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1AC3AE1D-6819-4C84-9146-78AF98D49AD2}" type="pres">
       <dgm:prSet presAssocID="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" presName="root1" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{81D5B84E-6BE0-488C-832D-A8DA8D2C7D9C}" type="pres">
       <dgm:prSet presAssocID="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" presName="LevelOneTextNode" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1" custScaleY="81480">
@@ -1656,57 +1632,22 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{180F6B79-F690-494E-8583-0E74BCB83418}" type="pres">
       <dgm:prSet presAssocID="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" presName="level2hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{694BC8C3-6CEB-4210-BF0B-7306DFC930F3}" type="pres">
       <dgm:prSet presAssocID="{2007647B-E25D-4E2B-A70E-D69B31B695E3}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B89796E9-8804-43B3-BE44-D48B719CE68D}" type="pres">
       <dgm:prSet presAssocID="{2007647B-E25D-4E2B-A70E-D69B31B695E3}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{292301C2-BC0D-4DD9-94BB-208E9066B70D}" type="pres">
       <dgm:prSet presAssocID="{4F7E215B-8626-4119-AA33-1E1F1ED0B9F6}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7976B0DA-7F78-450E-8AE3-662150B5EEAE}" type="pres">
       <dgm:prSet presAssocID="{4F7E215B-8626-4119-AA33-1E1F1ED0B9F6}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="5" custScaleX="58384" custScaleY="64712">
@@ -1715,57 +1656,22 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FAAA55C4-27D2-41E0-9C87-909874066B81}" type="pres">
       <dgm:prSet presAssocID="{4F7E215B-8626-4119-AA33-1E1F1ED0B9F6}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8DB57F31-CF52-404E-90F4-9125356FF194}" type="pres">
       <dgm:prSet presAssocID="{187EB347-2B6D-4261-8DD2-8173C4678B35}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B7E0F1AD-B7C9-4272-B5FB-7CBB0C6242DE}" type="pres">
       <dgm:prSet presAssocID="{187EB347-2B6D-4261-8DD2-8173C4678B35}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{27E53F42-6BB6-4B47-BC52-F2090853DC1F}" type="pres">
       <dgm:prSet presAssocID="{8BE39E55-8C4E-4AAC-88D6-E27BF0D23D10}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A21A6926-B908-4485-96D2-D69E2A0F3178}" type="pres">
       <dgm:prSet presAssocID="{8BE39E55-8C4E-4AAC-88D6-E27BF0D23D10}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="5" custScaleX="79825" custScaleY="58965" custLinFactNeighborY="3789">
@@ -1774,57 +1680,22 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6BE38D56-84DC-4368-9A3E-B6A6D257C33C}" type="pres">
       <dgm:prSet presAssocID="{8BE39E55-8C4E-4AAC-88D6-E27BF0D23D10}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0C412CAE-977D-4573-B83C-2529D64DCC4E}" type="pres">
       <dgm:prSet presAssocID="{65FAA541-BCF1-454B-B9E2-7532F44EDD0E}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C98D2640-68C2-40D7-8F6C-EC24E7DA45AB}" type="pres">
       <dgm:prSet presAssocID="{65FAA541-BCF1-454B-B9E2-7532F44EDD0E}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{6DB2E6A7-3C79-4898-BF55-9CEA7C43E0A3}" type="pres">
       <dgm:prSet presAssocID="{6C1713CF-4B10-4946-BD7D-8E1061A4F616}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{807DB013-F690-4D56-A7B7-86955F551061}" type="pres">
       <dgm:prSet presAssocID="{6C1713CF-4B10-4946-BD7D-8E1061A4F616}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="5" custScaleX="58384" custScaleY="64712">
@@ -1833,57 +1704,22 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C4F181BA-70FC-425D-B432-6BBA43AA0FB0}" type="pres">
       <dgm:prSet presAssocID="{6C1713CF-4B10-4946-BD7D-8E1061A4F616}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9F28C4A2-411E-49A8-8BDB-315C30740BD7}" type="pres">
       <dgm:prSet presAssocID="{16200C1F-39C7-4D1B-AA76-734B22EBB387}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EC17F4AB-0472-4895-BEDC-23EE376ADA9C}" type="pres">
       <dgm:prSet presAssocID="{16200C1F-39C7-4D1B-AA76-734B22EBB387}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8148D2ED-C0BC-480B-AE1E-D57E44356E15}" type="pres">
       <dgm:prSet presAssocID="{796A10BB-C840-4AC6-8635-88BDE45B811F}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B2D62580-5B24-441B-90A9-7447F939058D}" type="pres">
       <dgm:prSet presAssocID="{796A10BB-C840-4AC6-8635-88BDE45B811F}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="5" custScaleX="79825" custScaleY="58965" custLinFactNeighborY="3789">
@@ -1892,57 +1728,22 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C58358D7-4B97-4DFD-9485-5489A56EEC76}" type="pres">
       <dgm:prSet presAssocID="{796A10BB-C840-4AC6-8635-88BDE45B811F}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{53650F22-90EC-4AB5-A9E6-B344371FCC88}" type="pres">
       <dgm:prSet presAssocID="{389F724E-39E3-410C-BE08-E30E66C64EC4}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4FCB4CD6-3320-4655-AE28-0333FE6228E9}" type="pres">
       <dgm:prSet presAssocID="{389F724E-39E3-410C-BE08-E30E66C64EC4}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{02E53BCC-0519-4107-8B29-9360FE7E10A4}" type="pres">
       <dgm:prSet presAssocID="{3C3ECAB2-BD1A-40EC-9D24-F2A78A639CCB}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7086A2D0-93F4-4D7D-90BB-E6B40AC5D9D0}" type="pres">
       <dgm:prSet presAssocID="{3C3ECAB2-BD1A-40EC-9D24-F2A78A639CCB}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="5" custScaleX="58384" custScaleY="64712">
@@ -1951,57 +1752,22 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{09F5B4B1-38EE-41AA-B8B1-04CB80C796F9}" type="pres">
       <dgm:prSet presAssocID="{3C3ECAB2-BD1A-40EC-9D24-F2A78A639CCB}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A2E036C4-DBC0-4BCE-B947-7938C2FA2593}" type="pres">
       <dgm:prSet presAssocID="{2B443FBE-69D0-41A8-9D5B-6BDADCB7AC39}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D859FF50-E523-40D0-A413-C8A9C5DFAF1E}" type="pres">
       <dgm:prSet presAssocID="{2B443FBE-69D0-41A8-9D5B-6BDADCB7AC39}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D67012C6-CF23-4C1A-9DBD-8486B0CB25D8}" type="pres">
       <dgm:prSet presAssocID="{D52783AD-0E66-4F13-B854-159CA30E6E23}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C9821ED1-7E64-40C5-A2FB-435919AD4E5A}" type="pres">
       <dgm:prSet presAssocID="{D52783AD-0E66-4F13-B854-159CA30E6E23}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="5" custScaleX="79825" custScaleY="58965" custLinFactNeighborY="3789">
@@ -2010,57 +1776,22 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{865C5E69-C123-4543-9A21-A309CCBB124F}" type="pres">
       <dgm:prSet presAssocID="{D52783AD-0E66-4F13-B854-159CA30E6E23}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1DDF595E-B5B3-4F85-AC6B-7A49E82A154B}" type="pres">
       <dgm:prSet presAssocID="{5B4809EA-A7D5-4CAD-AE29-E8614F149956}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{F7C1C58A-086C-4039-94D1-52352F2FDCD5}" type="pres">
       <dgm:prSet presAssocID="{5B4809EA-A7D5-4CAD-AE29-E8614F149956}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2400CE13-F1D9-4050-B823-361BFD9C6FC5}" type="pres">
       <dgm:prSet presAssocID="{F3AF8892-A4AB-4A11-AD86-79B8D83BA2A4}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{833A11FC-3293-4373-B47B-79811B29138F}" type="pres">
       <dgm:prSet presAssocID="{F3AF8892-A4AB-4A11-AD86-79B8D83BA2A4}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="5" custScaleX="58384" custScaleY="64712">
@@ -2069,57 +1800,22 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{D0BD8EC7-225B-4FB8-ACB6-A23109C481EC}" type="pres">
       <dgm:prSet presAssocID="{F3AF8892-A4AB-4A11-AD86-79B8D83BA2A4}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{4B783DBA-EE43-4B2A-93EE-8E85F82E879B}" type="pres">
       <dgm:prSet presAssocID="{D8C1BA2F-00E0-4456-A9B8-E4B339AA13EA}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{231879AA-FF3B-4A0C-A552-B556338F6076}" type="pres">
       <dgm:prSet presAssocID="{D8C1BA2F-00E0-4456-A9B8-E4B339AA13EA}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{62A2585D-F13D-443E-800C-E985019488B2}" type="pres">
       <dgm:prSet presAssocID="{6AFD2237-2AC9-4C7A-838C-23EB0C16EEC8}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{19597AE4-2372-4E4D-9E46-3BD6AAEACC16}" type="pres">
       <dgm:prSet presAssocID="{6AFD2237-2AC9-4C7A-838C-23EB0C16EEC8}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="5" custScaleX="79825" custScaleY="58965">
@@ -2128,57 +1824,22 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FE5A59D7-8553-4E9C-8C63-F01BCB098F96}" type="pres">
       <dgm:prSet presAssocID="{6AFD2237-2AC9-4C7A-838C-23EB0C16EEC8}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{63D76EA2-AB6F-4C79-88E3-AE5B553B1789}" type="pres">
       <dgm:prSet presAssocID="{5F4C967A-5C88-4FE6-8E48-229538919C09}" presName="conn2-1" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A89D7684-70C9-49D0-9D2F-729DF5191726}" type="pres">
       <dgm:prSet presAssocID="{5F4C967A-5C88-4FE6-8E48-229538919C09}" presName="connTx" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A48ECE76-2089-45D0-839A-EC65F6F8CA6A}" type="pres">
       <dgm:prSet presAssocID="{3B48B18E-2914-4CAE-949D-1ECE22C39CA5}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{43DFBD47-131F-46CF-8189-37D4A2F57628}" type="pres">
       <dgm:prSet presAssocID="{3B48B18E-2914-4CAE-949D-1ECE22C39CA5}" presName="LevelTwoTextNode" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="5" custScaleX="58384" custScaleY="64712">
@@ -2187,57 +1848,22 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{55FAA847-341F-4AB8-8B8C-5DB9C08D1AA3}" type="pres">
       <dgm:prSet presAssocID="{3B48B18E-2914-4CAE-949D-1ECE22C39CA5}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E808A85D-D403-48AD-BB24-E506ED13A53D}" type="pres">
       <dgm:prSet presAssocID="{BB0CDC2F-18D0-46C7-811B-3B38BA3E096D}" presName="conn2-1" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{49268AAD-A163-449F-8B58-1F4884FD9647}" type="pres">
       <dgm:prSet presAssocID="{BB0CDC2F-18D0-46C7-811B-3B38BA3E096D}" presName="connTx" presStyleLbl="parChTrans1D3" presStyleIdx="4" presStyleCnt="5"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B92B9CB6-47D2-45EF-BE02-1D7EC6DF0116}" type="pres">
       <dgm:prSet presAssocID="{8631E32C-0A42-45C9-8405-951AD76DA965}" presName="root2" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{8D698A25-1CA2-47D5-B8DD-B0A9761A11BD}" type="pres">
       <dgm:prSet presAssocID="{8631E32C-0A42-45C9-8405-951AD76DA965}" presName="LevelTwoTextNode" presStyleLbl="node3" presStyleIdx="4" presStyleCnt="5" custScaleX="79825" custScaleY="58965">
@@ -2246,70 +1872,56 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{C17F6E0E-C0B3-4265-9B20-EA1FBEF4B780}" type="pres">
       <dgm:prSet presAssocID="{8631E32C-0A42-45C9-8405-951AD76DA965}" presName="level3hierChild" presStyleCnt="0"/>
       <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="es-CL"/>
-        </a:p>
-      </dgm:t>
     </dgm:pt>
   </dgm:ptLst>
   <dgm:cxnLst>
+    <dgm:cxn modelId="{4FFD5E01-F091-4C8C-B41A-1897B1E83A82}" type="presOf" srcId="{D8C1BA2F-00E0-4456-A9B8-E4B339AA13EA}" destId="{4B783DBA-EE43-4B2A-93EE-8E85F82E879B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{6A6AC30B-D620-4C6D-8C3C-D765D3CF1CA1}" type="presOf" srcId="{389F724E-39E3-410C-BE08-E30E66C64EC4}" destId="{4FCB4CD6-3320-4655-AE28-0333FE6228E9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{4CCAF017-D315-4BBE-BD5E-D6B1A00E48D6}" srcId="{3B48B18E-2914-4CAE-949D-1ECE22C39CA5}" destId="{8631E32C-0A42-45C9-8405-951AD76DA965}" srcOrd="0" destOrd="0" parTransId="{BB0CDC2F-18D0-46C7-811B-3B38BA3E096D}" sibTransId="{55EB2807-45B4-48C7-8340-D50C77FE6697}"/>
+    <dgm:cxn modelId="{57264D26-E379-484F-A8E3-3D3DDFF1213B}" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{6C1713CF-4B10-4946-BD7D-8E1061A4F616}" srcOrd="1" destOrd="0" parTransId="{65FAA541-BCF1-454B-B9E2-7532F44EDD0E}" sibTransId="{00615638-D91E-4F63-A5A7-1E720831EB10}"/>
+    <dgm:cxn modelId="{50EFFF30-97D1-4C30-A3E7-DD4209E4994F}" type="presOf" srcId="{5F4C967A-5C88-4FE6-8E48-229538919C09}" destId="{63D76EA2-AB6F-4C79-88E3-AE5B553B1789}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{0D2C1932-4357-4FA4-9B9A-73E0C1EE6A62}" type="presOf" srcId="{3C3ECAB2-BD1A-40EC-9D24-F2A78A639CCB}" destId="{7086A2D0-93F4-4D7D-90BB-E6B40AC5D9D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{5F785E33-8C0C-4608-830E-0D9EA4D2823D}" srcId="{4F7E215B-8626-4119-AA33-1E1F1ED0B9F6}" destId="{8BE39E55-8C4E-4AAC-88D6-E27BF0D23D10}" srcOrd="0" destOrd="0" parTransId="{187EB347-2B6D-4261-8DD2-8173C4678B35}" sibTransId="{6727F7C3-F000-462F-8EE6-B09E52999A0A}"/>
+    <dgm:cxn modelId="{0C21C233-DF51-4429-9DC2-3C1A16193E85}" type="presOf" srcId="{8631E32C-0A42-45C9-8405-951AD76DA965}" destId="{8D698A25-1CA2-47D5-B8DD-B0A9761A11BD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{54F9C13C-8024-4B0F-9F2C-36BBE7A977AF}" type="presOf" srcId="{BB0CDC2F-18D0-46C7-811B-3B38BA3E096D}" destId="{49268AAD-A163-449F-8B58-1F4884FD9647}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{F7A3EB3E-165B-43DA-9B0C-39A1FE0A9675}" type="presOf" srcId="{187EB347-2B6D-4261-8DD2-8173C4678B35}" destId="{B7E0F1AD-B7C9-4272-B5FB-7CBB0C6242DE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{C6D7CE5E-C908-4D26-BB2C-D85E71AA3B6F}" type="presOf" srcId="{6C1713CF-4B10-4946-BD7D-8E1061A4F616}" destId="{807DB013-F690-4D56-A7B7-86955F551061}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{16D98560-DF3E-41AC-B5D4-3939E66637F0}" type="presOf" srcId="{16200C1F-39C7-4D1B-AA76-734B22EBB387}" destId="{EC17F4AB-0472-4895-BEDC-23EE376ADA9C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{7184B662-972E-42D6-ABBE-BA00B0686199}" type="presOf" srcId="{5B4809EA-A7D5-4CAD-AE29-E8614F149956}" destId="{F7C1C58A-086C-4039-94D1-52352F2FDCD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{33A9EF65-107C-4D69-9B22-0AACA3093DB4}" type="presOf" srcId="{2B443FBE-69D0-41A8-9D5B-6BDADCB7AC39}" destId="{A2E036C4-DBC0-4BCE-B947-7938C2FA2593}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{98CD3D67-0239-452F-A17D-92C575235013}" type="presOf" srcId="{4170CEF8-EC62-4B23-8721-4228BF98C95B}" destId="{D5887073-1352-4788-832D-A6508CF42287}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{F4653C69-C156-4D63-900E-BED1650E94CA}" srcId="{4170CEF8-EC62-4B23-8721-4228BF98C95B}" destId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" srcOrd="0" destOrd="0" parTransId="{665BDD1D-6F84-4975-B736-516509026677}" sibTransId="{A7761A79-6A36-4A33-815B-16EC2DE07531}"/>
+    <dgm:cxn modelId="{95382E6A-B4D5-411F-8C53-2F554887208C}" type="presOf" srcId="{389F724E-39E3-410C-BE08-E30E66C64EC4}" destId="{53650F22-90EC-4AB5-A9E6-B344371FCC88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{C9623750-D1A9-48A2-ACBC-9385AD7EF580}" type="presOf" srcId="{2007647B-E25D-4E2B-A70E-D69B31B695E3}" destId="{B89796E9-8804-43B3-BE44-D48B719CE68D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{DA838770-C522-4660-8C27-748B6D23E8ED}" type="presOf" srcId="{16200C1F-39C7-4D1B-AA76-734B22EBB387}" destId="{9F28C4A2-411E-49A8-8BDB-315C30740BD7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{BEDB4D51-46C4-46E9-B355-406EF09ED7A6}" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{4F7E215B-8626-4119-AA33-1E1F1ED0B9F6}" srcOrd="0" destOrd="0" parTransId="{2007647B-E25D-4E2B-A70E-D69B31B695E3}" sibTransId="{B30B0596-0256-4795-B254-AE1929D617B9}"/>
+    <dgm:cxn modelId="{B96C4682-00A2-4D30-A202-A9D7DC0612E7}" type="presOf" srcId="{3B48B18E-2914-4CAE-949D-1ECE22C39CA5}" destId="{43DFBD47-131F-46CF-8189-37D4A2F57628}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{D986A984-8884-4DF1-BCD0-289E302CC11B}" type="presOf" srcId="{65FAA541-BCF1-454B-B9E2-7532F44EDD0E}" destId="{C98D2640-68C2-40D7-8F6C-EC24E7DA45AB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{7D192188-B071-409C-9978-DF5C90447A9A}" type="presOf" srcId="{D52783AD-0E66-4F13-B854-159CA30E6E23}" destId="{C9821ED1-7E64-40C5-A2FB-435919AD4E5A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{1C023689-DF5D-4CD1-81E0-1B251F39DE22}" type="presOf" srcId="{8BE39E55-8C4E-4AAC-88D6-E27BF0D23D10}" destId="{A21A6926-B908-4485-96D2-D69E2A0F3178}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{D3BC3A89-291A-4A05-B7B5-72BA496A459E}" srcId="{F3AF8892-A4AB-4A11-AD86-79B8D83BA2A4}" destId="{6AFD2237-2AC9-4C7A-838C-23EB0C16EEC8}" srcOrd="0" destOrd="0" parTransId="{D8C1BA2F-00E0-4456-A9B8-E4B339AA13EA}" sibTransId="{E8FAB863-B850-4953-BCA3-B1C7B3940833}"/>
+    <dgm:cxn modelId="{236E178A-4E03-4ABA-B135-25BA4E57B3FA}" type="presOf" srcId="{D8C1BA2F-00E0-4456-A9B8-E4B339AA13EA}" destId="{231879AA-FF3B-4A0C-A552-B556338F6076}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{6F69C294-7110-417A-847E-D64277AB8AD9}" type="presOf" srcId="{5F4C967A-5C88-4FE6-8E48-229538919C09}" destId="{A89D7684-70C9-49D0-9D2F-729DF5191726}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{B600129B-D20D-4C08-B538-6EBF42ED6D47}" type="presOf" srcId="{2B443FBE-69D0-41A8-9D5B-6BDADCB7AC39}" destId="{D859FF50-E523-40D0-A413-C8A9C5DFAF1E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{645D169F-9799-487C-B49B-857A678083AF}" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{3B48B18E-2914-4CAE-949D-1ECE22C39CA5}" srcOrd="4" destOrd="0" parTransId="{5F4C967A-5C88-4FE6-8E48-229538919C09}" sibTransId="{CC512156-1FF4-46DD-AE7C-842F56438C98}"/>
+    <dgm:cxn modelId="{BC4CC1A1-E81C-4D09-9653-D459FCF7698B}" type="presOf" srcId="{BB0CDC2F-18D0-46C7-811B-3B38BA3E096D}" destId="{E808A85D-D403-48AD-BB24-E506ED13A53D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{40BEDAA2-9A05-4B95-BE9E-5DFAAEE8087D}" type="presOf" srcId="{65FAA541-BCF1-454B-B9E2-7532F44EDD0E}" destId="{0C412CAE-977D-4573-B83C-2529D64DCC4E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{4EFD97A6-333F-460F-8187-0C80B6872550}" type="presOf" srcId="{4F7E215B-8626-4119-AA33-1E1F1ED0B9F6}" destId="{7976B0DA-7F78-450E-8AE3-662150B5EEAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{8E3B3FAA-DC0C-47CD-9EF1-437373D7B059}" type="presOf" srcId="{5B4809EA-A7D5-4CAD-AE29-E8614F149956}" destId="{1DDF595E-B5B3-4F85-AC6B-7A49E82A154B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{665223AC-A2A3-4257-8E51-94E23A8C1672}" srcId="{6C1713CF-4B10-4946-BD7D-8E1061A4F616}" destId="{796A10BB-C840-4AC6-8635-88BDE45B811F}" srcOrd="0" destOrd="0" parTransId="{16200C1F-39C7-4D1B-AA76-734B22EBB387}" sibTransId="{28A189D6-DFED-4205-A7B8-1F5E462A336C}"/>
+    <dgm:cxn modelId="{4966AEB2-3925-4990-9D48-859ABCBBF2E1}" type="presOf" srcId="{2007647B-E25D-4E2B-A70E-D69B31B695E3}" destId="{694BC8C3-6CEB-4210-BF0B-7306DFC930F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{FB0B10B6-A713-460E-9794-57FAE01496AC}" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{F3AF8892-A4AB-4A11-AD86-79B8D83BA2A4}" srcOrd="3" destOrd="0" parTransId="{5B4809EA-A7D5-4CAD-AE29-E8614F149956}" sibTransId="{A966BCDC-DCC8-4E00-A613-EA1BFC8A402F}"/>
+    <dgm:cxn modelId="{92DBDBC3-96D9-42DC-A609-1065BF1B225A}" type="presOf" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{81D5B84E-6BE0-488C-832D-A8DA8D2C7D9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{CF86B8CB-964E-40A7-A63F-4A454222294A}" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{3C3ECAB2-BD1A-40EC-9D24-F2A78A639CCB}" srcOrd="2" destOrd="0" parTransId="{389F724E-39E3-410C-BE08-E30E66C64EC4}" sibTransId="{246B63E6-BDF3-4372-92FA-BEFD431CC8A3}"/>
     <dgm:cxn modelId="{6335E7CE-F840-4CC7-9C8B-AD01F4BC4E48}" type="presOf" srcId="{6AFD2237-2AC9-4C7A-838C-23EB0C16EEC8}" destId="{19597AE4-2372-4E4D-9E46-3BD6AAEACC16}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{665223AC-A2A3-4257-8E51-94E23A8C1672}" srcId="{6C1713CF-4B10-4946-BD7D-8E1061A4F616}" destId="{796A10BB-C840-4AC6-8635-88BDE45B811F}" srcOrd="0" destOrd="0" parTransId="{16200C1F-39C7-4D1B-AA76-734B22EBB387}" sibTransId="{28A189D6-DFED-4205-A7B8-1F5E462A336C}"/>
-    <dgm:cxn modelId="{236E178A-4E03-4ABA-B135-25BA4E57B3FA}" type="presOf" srcId="{D8C1BA2F-00E0-4456-A9B8-E4B339AA13EA}" destId="{231879AA-FF3B-4A0C-A552-B556338F6076}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{D3BC3A89-291A-4A05-B7B5-72BA496A459E}" srcId="{F3AF8892-A4AB-4A11-AD86-79B8D83BA2A4}" destId="{6AFD2237-2AC9-4C7A-838C-23EB0C16EEC8}" srcOrd="0" destOrd="0" parTransId="{D8C1BA2F-00E0-4456-A9B8-E4B339AA13EA}" sibTransId="{E8FAB863-B850-4953-BCA3-B1C7B3940833}"/>
-    <dgm:cxn modelId="{6F69C294-7110-417A-847E-D64277AB8AD9}" type="presOf" srcId="{5F4C967A-5C88-4FE6-8E48-229538919C09}" destId="{A89D7684-70C9-49D0-9D2F-729DF5191726}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{92DBDBC3-96D9-42DC-A609-1065BF1B225A}" type="presOf" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{81D5B84E-6BE0-488C-832D-A8DA8D2C7D9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{B96C4682-00A2-4D30-A202-A9D7DC0612E7}" type="presOf" srcId="{3B48B18E-2914-4CAE-949D-1ECE22C39CA5}" destId="{43DFBD47-131F-46CF-8189-37D4A2F57628}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{B55EF3D3-21FD-4CD9-A8FC-54438CCC4D69}" type="presOf" srcId="{187EB347-2B6D-4261-8DD2-8173C4678B35}" destId="{8DB57F31-CF52-404E-90F4-9125356FF194}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{0E6B46DB-B05E-4CDA-B8B6-F26CDCEBC7B5}" srcId="{3C3ECAB2-BD1A-40EC-9D24-F2A78A639CCB}" destId="{D52783AD-0E66-4F13-B854-159CA30E6E23}" srcOrd="0" destOrd="0" parTransId="{2B443FBE-69D0-41A8-9D5B-6BDADCB7AC39}" sibTransId="{C127BE9E-CDCD-4FAC-A6C9-40A93D7BBDE8}"/>
-    <dgm:cxn modelId="{4FFD5E01-F091-4C8C-B41A-1897B1E83A82}" type="presOf" srcId="{D8C1BA2F-00E0-4456-A9B8-E4B339AA13EA}" destId="{4B783DBA-EE43-4B2A-93EE-8E85F82E879B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{DA838770-C522-4660-8C27-748B6D23E8ED}" type="presOf" srcId="{16200C1F-39C7-4D1B-AA76-734B22EBB387}" destId="{9F28C4A2-411E-49A8-8BDB-315C30740BD7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{B600129B-D20D-4C08-B538-6EBF42ED6D47}" type="presOf" srcId="{2B443FBE-69D0-41A8-9D5B-6BDADCB7AC39}" destId="{D859FF50-E523-40D0-A413-C8A9C5DFAF1E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{CF86B8CB-964E-40A7-A63F-4A454222294A}" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{3C3ECAB2-BD1A-40EC-9D24-F2A78A639CCB}" srcOrd="2" destOrd="0" parTransId="{389F724E-39E3-410C-BE08-E30E66C64EC4}" sibTransId="{246B63E6-BDF3-4372-92FA-BEFD431CC8A3}"/>
-    <dgm:cxn modelId="{8E3B3FAA-DC0C-47CD-9EF1-437373D7B059}" type="presOf" srcId="{5B4809EA-A7D5-4CAD-AE29-E8614F149956}" destId="{1DDF595E-B5B3-4F85-AC6B-7A49E82A154B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{645D169F-9799-487C-B49B-857A678083AF}" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{3B48B18E-2914-4CAE-949D-1ECE22C39CA5}" srcOrd="4" destOrd="0" parTransId="{5F4C967A-5C88-4FE6-8E48-229538919C09}" sibTransId="{CC512156-1FF4-46DD-AE7C-842F56438C98}"/>
-    <dgm:cxn modelId="{B55EF3D3-21FD-4CD9-A8FC-54438CCC4D69}" type="presOf" srcId="{187EB347-2B6D-4261-8DD2-8173C4678B35}" destId="{8DB57F31-CF52-404E-90F4-9125356FF194}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{BC4CC1A1-E81C-4D09-9653-D459FCF7698B}" type="presOf" srcId="{BB0CDC2F-18D0-46C7-811B-3B38BA3E096D}" destId="{E808A85D-D403-48AD-BB24-E506ED13A53D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{95382E6A-B4D5-411F-8C53-2F554887208C}" type="presOf" srcId="{389F724E-39E3-410C-BE08-E30E66C64EC4}" destId="{53650F22-90EC-4AB5-A9E6-B344371FCC88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{BEDB4D51-46C4-46E9-B355-406EF09ED7A6}" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{4F7E215B-8626-4119-AA33-1E1F1ED0B9F6}" srcOrd="0" destOrd="0" parTransId="{2007647B-E25D-4E2B-A70E-D69B31B695E3}" sibTransId="{B30B0596-0256-4795-B254-AE1929D617B9}"/>
-    <dgm:cxn modelId="{FB0B10B6-A713-460E-9794-57FAE01496AC}" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{F3AF8892-A4AB-4A11-AD86-79B8D83BA2A4}" srcOrd="3" destOrd="0" parTransId="{5B4809EA-A7D5-4CAD-AE29-E8614F149956}" sibTransId="{A966BCDC-DCC8-4E00-A613-EA1BFC8A402F}"/>
-    <dgm:cxn modelId="{4966AEB2-3925-4990-9D48-859ABCBBF2E1}" type="presOf" srcId="{2007647B-E25D-4E2B-A70E-D69B31B695E3}" destId="{694BC8C3-6CEB-4210-BF0B-7306DFC930F3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{50EFFF30-97D1-4C30-A3E7-DD4209E4994F}" type="presOf" srcId="{5F4C967A-5C88-4FE6-8E48-229538919C09}" destId="{63D76EA2-AB6F-4C79-88E3-AE5B553B1789}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{0C21C233-DF51-4429-9DC2-3C1A16193E85}" type="presOf" srcId="{8631E32C-0A42-45C9-8405-951AD76DA965}" destId="{8D698A25-1CA2-47D5-B8DD-B0A9761A11BD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{16D98560-DF3E-41AC-B5D4-3939E66637F0}" type="presOf" srcId="{16200C1F-39C7-4D1B-AA76-734B22EBB387}" destId="{EC17F4AB-0472-4895-BEDC-23EE376ADA9C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{F7A3EB3E-165B-43DA-9B0C-39A1FE0A9675}" type="presOf" srcId="{187EB347-2B6D-4261-8DD2-8173C4678B35}" destId="{B7E0F1AD-B7C9-4272-B5FB-7CBB0C6242DE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{C9623750-D1A9-48A2-ACBC-9385AD7EF580}" type="presOf" srcId="{2007647B-E25D-4E2B-A70E-D69B31B695E3}" destId="{B89796E9-8804-43B3-BE44-D48B719CE68D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{C6D7CE5E-C908-4D26-BB2C-D85E71AA3B6F}" type="presOf" srcId="{6C1713CF-4B10-4946-BD7D-8E1061A4F616}" destId="{807DB013-F690-4D56-A7B7-86955F551061}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{40BEDAA2-9A05-4B95-BE9E-5DFAAEE8087D}" type="presOf" srcId="{65FAA541-BCF1-454B-B9E2-7532F44EDD0E}" destId="{0C412CAE-977D-4573-B83C-2529D64DCC4E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{6A6AC30B-D620-4C6D-8C3C-D765D3CF1CA1}" type="presOf" srcId="{389F724E-39E3-410C-BE08-E30E66C64EC4}" destId="{4FCB4CD6-3320-4655-AE28-0333FE6228E9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{5F785E33-8C0C-4608-830E-0D9EA4D2823D}" srcId="{4F7E215B-8626-4119-AA33-1E1F1ED0B9F6}" destId="{8BE39E55-8C4E-4AAC-88D6-E27BF0D23D10}" srcOrd="0" destOrd="0" parTransId="{187EB347-2B6D-4261-8DD2-8173C4678B35}" sibTransId="{6727F7C3-F000-462F-8EE6-B09E52999A0A}"/>
-    <dgm:cxn modelId="{7D192188-B071-409C-9978-DF5C90447A9A}" type="presOf" srcId="{D52783AD-0E66-4F13-B854-159CA30E6E23}" destId="{C9821ED1-7E64-40C5-A2FB-435919AD4E5A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
+    <dgm:cxn modelId="{35A8EBE7-FA3E-4C81-B67D-384719446F8A}" type="presOf" srcId="{796A10BB-C840-4AC6-8635-88BDE45B811F}" destId="{B2D62580-5B24-441B-90A9-7447F939058D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{703A85FA-92E2-44A8-A3B5-2ADA71966E15}" type="presOf" srcId="{F3AF8892-A4AB-4A11-AD86-79B8D83BA2A4}" destId="{833A11FC-3293-4373-B47B-79811B29138F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{57264D26-E379-484F-A8E3-3D3DDFF1213B}" srcId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" destId="{6C1713CF-4B10-4946-BD7D-8E1061A4F616}" srcOrd="1" destOrd="0" parTransId="{65FAA541-BCF1-454B-B9E2-7532F44EDD0E}" sibTransId="{00615638-D91E-4F63-A5A7-1E720831EB10}"/>
-    <dgm:cxn modelId="{4CCAF017-D315-4BBE-BD5E-D6B1A00E48D6}" srcId="{3B48B18E-2914-4CAE-949D-1ECE22C39CA5}" destId="{8631E32C-0A42-45C9-8405-951AD76DA965}" srcOrd="0" destOrd="0" parTransId="{BB0CDC2F-18D0-46C7-811B-3B38BA3E096D}" sibTransId="{55EB2807-45B4-48C7-8340-D50C77FE6697}"/>
-    <dgm:cxn modelId="{35A8EBE7-FA3E-4C81-B67D-384719446F8A}" type="presOf" srcId="{796A10BB-C840-4AC6-8635-88BDE45B811F}" destId="{B2D62580-5B24-441B-90A9-7447F939058D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{4EFD97A6-333F-460F-8187-0C80B6872550}" type="presOf" srcId="{4F7E215B-8626-4119-AA33-1E1F1ED0B9F6}" destId="{7976B0DA-7F78-450E-8AE3-662150B5EEAE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{33A9EF65-107C-4D69-9B22-0AACA3093DB4}" type="presOf" srcId="{2B443FBE-69D0-41A8-9D5B-6BDADCB7AC39}" destId="{A2E036C4-DBC0-4BCE-B947-7938C2FA2593}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{54F9C13C-8024-4B0F-9F2C-36BBE7A977AF}" type="presOf" srcId="{BB0CDC2F-18D0-46C7-811B-3B38BA3E096D}" destId="{49268AAD-A163-449F-8B58-1F4884FD9647}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{D986A984-8884-4DF1-BCD0-289E302CC11B}" type="presOf" srcId="{65FAA541-BCF1-454B-B9E2-7532F44EDD0E}" destId="{C98D2640-68C2-40D7-8F6C-EC24E7DA45AB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{F4653C69-C156-4D63-900E-BED1650E94CA}" srcId="{4170CEF8-EC62-4B23-8721-4228BF98C95B}" destId="{FFFEC699-33A8-4588-BE32-D7C5EDEEBE0E}" srcOrd="0" destOrd="0" parTransId="{665BDD1D-6F84-4975-B736-516509026677}" sibTransId="{A7761A79-6A36-4A33-815B-16EC2DE07531}"/>
-    <dgm:cxn modelId="{1C023689-DF5D-4CD1-81E0-1B251F39DE22}" type="presOf" srcId="{8BE39E55-8C4E-4AAC-88D6-E27BF0D23D10}" destId="{A21A6926-B908-4485-96D2-D69E2A0F3178}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
-    <dgm:cxn modelId="{7184B662-972E-42D6-ABBE-BA00B0686199}" type="presOf" srcId="{5B4809EA-A7D5-4CAD-AE29-E8614F149956}" destId="{F7C1C58A-086C-4039-94D1-52352F2FDCD5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{36547212-0C8F-4549-AA77-94BED9C9A952}" type="presParOf" srcId="{D5887073-1352-4788-832D-A6508CF42287}" destId="{1AC3AE1D-6819-4C84-9146-78AF98D49AD2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{35FE88A0-7A05-4983-ACA4-DFAC1B82F95A}" type="presParOf" srcId="{1AC3AE1D-6819-4C84-9146-78AF98D49AD2}" destId="{81D5B84E-6BE0-488C-832D-A8DA8D2C7D9C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
     <dgm:cxn modelId="{532A0DC7-16D9-4B5D-A223-36D33EAA95D7}" type="presParOf" srcId="{1AC3AE1D-6819-4C84-9146-78AF98D49AD2}" destId="{180F6B79-F690-494E-8583-0E74BCB83418}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2008/layout/HorizontalMultiLevelHierarchy"/>
@@ -2389,8 +2001,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4358919" y="3637373"/>
-          <a:ext cx="545912" cy="91440"/>
+          <a:off x="4513670" y="3612810"/>
+          <a:ext cx="542271" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2404,7 +2016,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="545912" y="45720"/>
+                <a:pt x="542271" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2442,7 +2054,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2452,13 +2064,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="es-CL" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4618227" y="3669445"/>
-        <a:ext cx="27295" cy="27295"/>
+        <a:off x="4771249" y="3644973"/>
+        <a:ext cx="27113" cy="27113"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{63D76EA2-AB6F-4C79-88E3-AE5B553B1789}">
@@ -2468,8 +2081,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2219379" y="2189956"/>
-          <a:ext cx="545912" cy="1493136"/>
+          <a:off x="2388399" y="2175351"/>
+          <a:ext cx="542271" cy="1483179"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2483,13 +2096,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="272956" y="0"/>
+                <a:pt x="271135" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="272956" y="1493136"/>
+                <a:pt x="271135" y="1483179"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="545912" y="1493136"/>
+                <a:pt x="542271" y="1483179"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2527,7 +2140,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2537,13 +2150,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="es-CL" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2452590" y="2896779"/>
-        <a:ext cx="79490" cy="79490"/>
+        <a:off x="2620055" y="2877460"/>
+        <a:ext cx="78960" cy="78960"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4B783DBA-EE43-4B2A-93EE-8E85F82E879B}">
@@ -2553,8 +2167,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4358919" y="2890804"/>
-          <a:ext cx="545912" cy="91440"/>
+          <a:off x="4513670" y="2871221"/>
+          <a:ext cx="542271" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2568,7 +2182,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="545912" y="45720"/>
+                <a:pt x="542271" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2606,7 +2220,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2616,13 +2230,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="es-CL" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4618227" y="2922877"/>
-        <a:ext cx="27295" cy="27295"/>
+        <a:off x="4771249" y="2903384"/>
+        <a:ext cx="27113" cy="27113"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1DDF595E-B5B3-4F85-AC6B-7A49E82A154B}">
@@ -2632,8 +2247,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2219379" y="2189956"/>
-          <a:ext cx="545912" cy="746568"/>
+          <a:off x="2388399" y="2175351"/>
+          <a:ext cx="542271" cy="741589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2647,13 +2262,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="272956" y="0"/>
+                <a:pt x="271135" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="272956" y="746568"/>
+                <a:pt x="271135" y="741589"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="545912" y="746568"/>
+                <a:pt x="542271" y="741589"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2691,7 +2306,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2701,13 +2316,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="es-CL" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2469213" y="2540118"/>
-        <a:ext cx="46243" cy="46243"/>
+        <a:off x="2636567" y="2523178"/>
+        <a:ext cx="45935" cy="45935"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A2E036C4-DBC0-4BCE-B947-7938C2FA2593}">
@@ -2717,8 +2333,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4358919" y="2144236"/>
-          <a:ext cx="545912" cy="91440"/>
+          <a:off x="4513670" y="2129631"/>
+          <a:ext cx="542271" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2732,13 +2348,13 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="272956" y="45720"/>
+                <a:pt x="271135" y="45720"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="272956" y="77251"/>
+                <a:pt x="271135" y="77041"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="545912" y="77251"/>
+                <a:pt x="542271" y="77041"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2776,7 +2392,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2786,13 +2402,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="es-CL" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4618204" y="2176285"/>
-        <a:ext cx="27341" cy="27341"/>
+        <a:off x="4771227" y="2161772"/>
+        <a:ext cx="27158" cy="27158"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{53650F22-90EC-4AB5-A9E6-B344371FCC88}">
@@ -2802,8 +2419,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2219379" y="2144236"/>
-          <a:ext cx="545912" cy="91440"/>
+          <a:off x="2388399" y="2129631"/>
+          <a:ext cx="542271" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2817,7 +2434,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="545912" y="45720"/>
+                <a:pt x="542271" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2855,7 +2472,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2865,13 +2482,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="es-CL" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2478687" y="2176308"/>
-        <a:ext cx="27295" cy="27295"/>
+        <a:off x="2645978" y="2161794"/>
+        <a:ext cx="27113" cy="27113"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9F28C4A2-411E-49A8-8BDB-315C30740BD7}">
@@ -2881,8 +2499,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4358919" y="1397668"/>
-          <a:ext cx="545912" cy="91440"/>
+          <a:off x="4513670" y="1388041"/>
+          <a:ext cx="542271" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2896,13 +2514,13 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="272956" y="45720"/>
+                <a:pt x="271135" y="45720"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="272956" y="77251"/>
+                <a:pt x="271135" y="77041"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="545912" y="77251"/>
+                <a:pt x="542271" y="77041"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2940,7 +2558,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2950,13 +2568,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="es-CL" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4618204" y="1429717"/>
-        <a:ext cx="27341" cy="27341"/>
+        <a:off x="4771227" y="1420182"/>
+        <a:ext cx="27158" cy="27158"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0C412CAE-977D-4573-B83C-2529D64DCC4E}">
@@ -2966,8 +2585,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2219379" y="1443388"/>
-          <a:ext cx="545912" cy="746568"/>
+          <a:off x="2388399" y="1433761"/>
+          <a:ext cx="542271" cy="741589"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2978,16 +2597,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="746568"/>
+                <a:pt x="0" y="741589"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="272956" y="746568"/>
+                <a:pt x="271135" y="741589"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="272956" y="0"/>
+                <a:pt x="271135" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="545912" y="0"/>
+                <a:pt x="542271" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3025,7 +2644,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3035,13 +2654,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="es-CL" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2469213" y="1793550"/>
-        <a:ext cx="46243" cy="46243"/>
+        <a:off x="2636567" y="1781589"/>
+        <a:ext cx="45935" cy="45935"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8DB57F31-CF52-404E-90F4-9125356FF194}">
@@ -3051,8 +2671,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4358919" y="651099"/>
-          <a:ext cx="545912" cy="91440"/>
+          <a:off x="4513670" y="646452"/>
+          <a:ext cx="542271" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3066,13 +2686,13 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="272956" y="45720"/>
+                <a:pt x="271135" y="45720"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="272956" y="77251"/>
+                <a:pt x="271135" y="77041"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="545912" y="77251"/>
+                <a:pt x="542271" y="77041"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3110,7 +2730,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3120,13 +2740,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="es-CL" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4618204" y="683149"/>
-        <a:ext cx="27341" cy="27341"/>
+        <a:off x="4771227" y="678593"/>
+        <a:ext cx="27158" cy="27158"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{694BC8C3-6CEB-4210-BF0B-7306DFC930F3}">
@@ -3136,8 +2757,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2219379" y="696819"/>
-          <a:ext cx="545912" cy="1493136"/>
+          <a:off x="2388399" y="692172"/>
+          <a:ext cx="542271" cy="1483179"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3148,16 +2769,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="1493136"/>
+                <a:pt x="0" y="1483179"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="272956" y="1493136"/>
+                <a:pt x="271135" y="1483179"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="272956" y="0"/>
+                <a:pt x="271135" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="545912" y="0"/>
+                <a:pt x="542271" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -3195,7 +2816,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3205,13 +2826,14 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:endParaRPr lang="es-CL" sz="900" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2452590" y="1403642"/>
-        <a:ext cx="79490" cy="79490"/>
+        <a:off x="2620055" y="1394281"/>
+        <a:ext cx="78960" cy="78960"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{81D5B84E-6BE0-488C-832D-A8DA8D2C7D9C}">
@@ -3221,8 +2843,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="18911" y="1773864"/>
-          <a:ext cx="3568753" cy="832183"/>
+          <a:off x="202606" y="1762034"/>
+          <a:ext cx="3544952" cy="826633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3269,7 +2891,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3279,17 +2901,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>Tipos de defectos</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="18911" y="1773864"/>
-        <a:ext cx="3568753" cy="832183"/>
+        <a:off x="202606" y="1762034"/>
+        <a:ext cx="3544952" cy="826633"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7976B0DA-7F78-450E-8AE3-662150B5EEAE}">
@@ -3299,8 +2921,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2765291" y="427558"/>
-          <a:ext cx="1593627" cy="538522"/>
+          <a:off x="2930671" y="424706"/>
+          <a:ext cx="1582999" cy="534931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3347,7 +2969,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3357,17 +2979,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>Documentación</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2765291" y="427558"/>
-        <a:ext cx="1593627" cy="538522"/>
+        <a:off x="2930671" y="424706"/>
+        <a:ext cx="1582999" cy="534931"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A21A6926-B908-4485-96D2-D69E2A0F3178}">
@@ -3377,8 +2999,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4904831" y="483002"/>
-          <a:ext cx="2178872" cy="490696"/>
+          <a:off x="5055942" y="479781"/>
+          <a:ext cx="2164341" cy="487424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3425,7 +3047,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3435,17 +3057,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>Defectos detectados en documentos y diseños del proyecto.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4904831" y="483002"/>
-        <a:ext cx="2178872" cy="490696"/>
+        <a:off x="5055942" y="479781"/>
+        <a:ext cx="2164341" cy="487424"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{807DB013-F690-4D56-A7B7-86955F551061}">
@@ -3455,8 +3077,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2765291" y="1174126"/>
-          <a:ext cx="1593627" cy="538522"/>
+          <a:off x="2930671" y="1166296"/>
+          <a:ext cx="1582999" cy="534931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3503,7 +3125,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3513,17 +3135,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>Código</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2765291" y="1174126"/>
-        <a:ext cx="1593627" cy="538522"/>
+        <a:off x="2930671" y="1166296"/>
+        <a:ext cx="1582999" cy="534931"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B2D62580-5B24-441B-90A9-7447F939058D}">
@@ -3533,8 +3155,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4904831" y="1229571"/>
-          <a:ext cx="2178872" cy="490696"/>
+          <a:off x="5055942" y="1221370"/>
+          <a:ext cx="2164341" cy="487424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3581,7 +3203,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3591,17 +3213,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>Defectos asociados al código y su estructura.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4904831" y="1229571"/>
-        <a:ext cx="2178872" cy="490696"/>
+        <a:off x="5055942" y="1221370"/>
+        <a:ext cx="2164341" cy="487424"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7086A2D0-93F4-4D7D-90BB-E6B40AC5D9D0}">
@@ -3611,8 +3233,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2765291" y="1920695"/>
-          <a:ext cx="1593627" cy="538522"/>
+          <a:off x="2930671" y="1907885"/>
+          <a:ext cx="1582999" cy="534931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3659,7 +3281,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3669,17 +3291,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>Integración</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2765291" y="1920695"/>
-        <a:ext cx="1593627" cy="538522"/>
+        <a:off x="2930671" y="1907885"/>
+        <a:ext cx="1582999" cy="534931"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C9821ED1-7E64-40C5-A2FB-435919AD4E5A}">
@@ -3689,8 +3311,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4904831" y="1976139"/>
-          <a:ext cx="2178872" cy="490696"/>
+          <a:off x="5055942" y="1962960"/>
+          <a:ext cx="2164341" cy="487424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3737,7 +3359,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3747,17 +3369,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>Defectos asociados a la integración de la aplicación, ya sea con módulos del mismo sistema u otros software.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4904831" y="1976139"/>
-        <a:ext cx="2178872" cy="490696"/>
+        <a:off x="5055942" y="1962960"/>
+        <a:ext cx="2164341" cy="487424"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{833A11FC-3293-4373-B47B-79811B29138F}">
@@ -3767,8 +3389,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2765291" y="2667263"/>
-          <a:ext cx="1593627" cy="538522"/>
+          <a:off x="2930671" y="2649475"/>
+          <a:ext cx="1582999" cy="534931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3815,7 +3437,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3825,17 +3447,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>Datos</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2765291" y="2667263"/>
-        <a:ext cx="1593627" cy="538522"/>
+        <a:off x="2930671" y="2649475"/>
+        <a:ext cx="1582999" cy="534931"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{19597AE4-2372-4E4D-9E46-3BD6AAEACC16}">
@@ -3845,8 +3467,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4904831" y="2691176"/>
-          <a:ext cx="2178872" cy="490696"/>
+          <a:off x="5055942" y="2673228"/>
+          <a:ext cx="2164341" cy="487424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3893,7 +3515,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3903,17 +3525,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>Defectos asociados a problemas de datos.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4904831" y="2691176"/>
-        <a:ext cx="2178872" cy="490696"/>
+        <a:off x="5055942" y="2673228"/>
+        <a:ext cx="2164341" cy="487424"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{43DFBD47-131F-46CF-8189-37D4A2F57628}">
@@ -3923,8 +3545,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2765291" y="3413832"/>
-          <a:ext cx="1593627" cy="538522"/>
+          <a:off x="2930671" y="3391064"/>
+          <a:ext cx="1582999" cy="534931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3971,7 +3593,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3981,17 +3603,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>Funcionalidad</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2765291" y="3413832"/>
-        <a:ext cx="1593627" cy="538522"/>
+        <a:off x="2930671" y="3391064"/>
+        <a:ext cx="1582999" cy="534931"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8D698A25-1CA2-47D5-B8DD-B0A9761A11BD}">
@@ -4001,8 +3623,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4904831" y="3437744"/>
-          <a:ext cx="2178872" cy="490696"/>
+          <a:off x="5055942" y="3414818"/>
+          <a:ext cx="2164341" cy="487424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4049,7 +3671,7 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0" algn="ctr" defTabSz="400050">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -4059,17 +3681,17 @@
             <a:spcAft>
               <a:spcPct val="35000"/>
             </a:spcAft>
+            <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0" smtClean="0"/>
+            <a:rPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
             <a:t>El software no cumple con la funcionalidad requerida.</a:t>
           </a:r>
-          <a:endParaRPr lang="es-CL" sz="900" kern="1200" dirty="0"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4904831" y="3437744"/>
-        <a:ext cx="2178872" cy="490696"/>
+        <a:off x="5055942" y="3414818"/>
+        <a:ext cx="2164341" cy="487424"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5450,7 +5072,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Marcador de contenido 2"/>
+        <xdr:cNvPr id="2" name="Marcador de contenido 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noGrp="1"/>
         </xdr:cNvGraphicFramePr>
@@ -5482,20 +5110,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="45" name="Grupo 44"/>
+        <xdr:cNvPr id="45" name="Grupo 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8318500" y="3695700"/>
-          <a:ext cx="8616629" cy="5010760"/>
+          <a:off x="8629650" y="3684270"/>
+          <a:ext cx="8951909" cy="4976470"/>
           <a:chOff x="286808" y="1169878"/>
           <a:chExt cx="8616629" cy="5182210"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
         <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="46" name="49 Grupo"/>
+          <xdr:cNvPr id="46" name="49 Grupo">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
@@ -5508,7 +5148,13 @@
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="49" name="3 Elipse"/>
+            <xdr:cNvPr id="49" name="3 Elipse">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000031000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5639,7 +5285,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="50" name="20 CuadroTexto"/>
+            <xdr:cNvPr id="50" name="20 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5766,7 +5418,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="51" name="21 Elipse"/>
+            <xdr:cNvPr id="51" name="21 Elipse">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -5897,7 +5555,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="52" name="22 CuadroTexto"/>
+            <xdr:cNvPr id="52" name="22 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6024,7 +5688,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="53" name="23 Elipse"/>
+            <xdr:cNvPr id="53" name="23 Elipse">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6155,7 +5825,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="54" name="24 CuadroTexto"/>
+            <xdr:cNvPr id="54" name="24 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000036000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6282,7 +5958,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="55" name="25 Elipse"/>
+            <xdr:cNvPr id="55" name="25 Elipse">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6413,7 +6095,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="56" name="26 CuadroTexto"/>
+            <xdr:cNvPr id="56" name="26 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000038000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6540,7 +6228,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="57" name="27 Elipse"/>
+            <xdr:cNvPr id="57" name="27 Elipse">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6671,7 +6365,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="58" name="28 Elipse"/>
+            <xdr:cNvPr id="58" name="28 Elipse">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6802,7 +6502,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="59" name="29 CuadroTexto"/>
+            <xdr:cNvPr id="59" name="29 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -6929,7 +6635,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="60" name="30 Elipse"/>
+            <xdr:cNvPr id="60" name="30 Elipse">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7060,7 +6772,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="61" name="31 CuadroTexto"/>
+            <xdr:cNvPr id="61" name="31 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7187,7 +6905,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="62" name="32 Elipse"/>
+            <xdr:cNvPr id="62" name="32 Elipse">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7318,7 +7042,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="63" name="33 CuadroTexto"/>
+            <xdr:cNvPr id="63" name="33 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7445,7 +7175,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="64" name="34 CuadroTexto"/>
+            <xdr:cNvPr id="64" name="34 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -7572,7 +7308,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="65" name="36 Conector curvado"/>
+            <xdr:cNvPr id="65" name="36 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -7606,7 +7348,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="66" name="38 Conector curvado"/>
+            <xdr:cNvPr id="66" name="38 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="57" idx="7"/>
               <a:endCxn id="49" idx="6"/>
@@ -7641,7 +7389,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="67" name="40 Conector curvado"/>
+            <xdr:cNvPr id="67" name="40 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000043000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="49" idx="0"/>
               <a:endCxn id="51" idx="0"/>
@@ -7678,7 +7432,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="68" name="43 Conector curvado"/>
+            <xdr:cNvPr id="68" name="43 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000044000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="51" idx="4"/>
               <a:endCxn id="64" idx="3"/>
@@ -7713,7 +7473,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="69" name="46 Conector curvado"/>
+            <xdr:cNvPr id="69" name="46 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000045000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="51" idx="7"/>
               <a:endCxn id="53" idx="0"/>
@@ -7750,7 +7516,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="70" name="51 Conector curvado"/>
+            <xdr:cNvPr id="70" name="51 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000046000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="53" idx="7"/>
               <a:endCxn id="55" idx="7"/>
@@ -7787,7 +7559,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="71" name="53 Conector curvado"/>
+            <xdr:cNvPr id="71" name="53 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000047000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="55" idx="6"/>
               <a:endCxn id="62" idx="7"/>
@@ -7822,7 +7600,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="72" name="55 Conector curvado"/>
+            <xdr:cNvPr id="72" name="55 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000048000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="55" idx="4"/>
               <a:endCxn id="58" idx="7"/>
@@ -7857,7 +7641,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="73" name="57 Conector curvado"/>
+            <xdr:cNvPr id="73" name="57 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000049000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="59" idx="1"/>
             </xdr:cNvCxnSpPr>
@@ -7891,7 +7681,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="74" name="59 Conector curvado"/>
+            <xdr:cNvPr id="74" name="59 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="51" idx="6"/>
               <a:endCxn id="60" idx="7"/>
@@ -7926,7 +7722,13 @@
         </xdr:cxnSp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="75" name="60 CuadroTexto"/>
+            <xdr:cNvPr id="75" name="60 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8056,7 +7858,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="76" name="61 CuadroTexto"/>
+            <xdr:cNvPr id="76" name="61 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8179,7 +7987,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="77" name="62 CuadroTexto"/>
+            <xdr:cNvPr id="77" name="62 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8302,7 +8116,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="63 CuadroTexto"/>
+            <xdr:cNvPr id="78" name="63 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8434,7 +8254,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="79" name="64 CuadroTexto"/>
+            <xdr:cNvPr id="79" name="64 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00004F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8566,7 +8392,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="80" name="66 CuadroTexto"/>
+            <xdr:cNvPr id="80" name="66 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000050000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8698,7 +8530,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="81" name="67 CuadroTexto"/>
+            <xdr:cNvPr id="81" name="67 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000051000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8830,7 +8668,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="82" name="68 CuadroTexto"/>
+            <xdr:cNvPr id="82" name="68 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000052000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -8962,7 +8806,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="83" name="69 CuadroTexto"/>
+            <xdr:cNvPr id="83" name="69 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000053000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9087,7 +8937,13 @@
         </xdr:sp>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="84" name="70 CuadroTexto"/>
+            <xdr:cNvPr id="84" name="70 CuadroTexto">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000054000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -9212,7 +9068,13 @@
         </xdr:sp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="85" name="84 Conector curvado"/>
+            <xdr:cNvPr id="85" name="84 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000055000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="58" idx="4"/>
               <a:endCxn id="60" idx="4"/>
@@ -9249,7 +9111,13 @@
         </xdr:cxnSp>
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
-            <xdr:cNvPr id="86" name="86 Conector curvado"/>
+            <xdr:cNvPr id="86" name="86 Conector curvado">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000056000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvCxnSpPr>
               <a:stCxn id="62" idx="4"/>
               <a:endCxn id="58" idx="4"/>
@@ -9287,7 +9155,13 @@
       </xdr:grpSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="47" name="CuadroTexto 6"/>
+          <xdr:cNvPr id="47" name="CuadroTexto 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9419,7 +9293,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="CuadroTexto 45"/>
+          <xdr:cNvPr id="48" name="CuadroTexto 45">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000030000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -9814,22 +9694,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="91.85546875" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="84.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.26171875" customWidth="1"/>
+    <col min="4" max="4" width="91.83984375" customWidth="1"/>
+    <col min="5" max="5" width="11.41796875" customWidth="1"/>
+    <col min="8" max="8" width="84.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
@@ -9839,28 +9719,28 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
@@ -9880,7 +9760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C11" s="3" t="s">
         <v>44</v>
       </c>
@@ -9898,7 +9778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
@@ -9916,7 +9796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
@@ -9934,7 +9814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C14" s="3" t="s">
         <v>47</v>
       </c>
@@ -9952,7 +9832,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C15" s="3" t="s">
         <v>48</v>
       </c>
@@ -9970,7 +9850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
@@ -9988,7 +9868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
@@ -10006,7 +9886,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
@@ -10024,7 +9904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C19" s="3" t="s">
         <v>54</v>
       </c>
@@ -10051,26 +9931,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" ht="26.1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
@@ -10081,7 +9961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -10092,7 +9972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
@@ -10103,7 +9983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
@@ -10114,7 +9994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
@@ -10125,7 +10005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
       <c r="J9" s="16" t="s">
         <v>22</v>
       </c>

--- a/Prueba 2/Registro de Defectos.xlsx
+++ b/Prueba 2/Registro de Defectos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2884d8d705fa78f8/Documentos/GitHub/CALIDAD_DE_SOFTWARE/Prueba 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5B315B3C-C0FB-445C-8AB7-F68F6B9E7C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{5B315B3C-C0FB-445C-8AB7-F68F6B9E7C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F52F3C19-2D22-4042-A909-E732B6F31F66}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -234,7 +234,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +256,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFF3EA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,12 +372,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -400,6 +414,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9698,7 +9718,7 @@
   <dimension ref="C2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9710,14 +9730,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" t="s">
@@ -9741,184 +9761,184 @@
     </row>
     <row r="9" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="10" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -9946,75 +9966,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="2:16" ht="26.1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Prueba 2/Registro de Defectos.xlsx
+++ b/Prueba 2/Registro de Defectos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2884d8d705fa78f8/Documentos/GitHub/CALIDAD_DE_SOFTWARE/Prueba 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://duoccl0-my.sharepoint.com/personal/vice_zurita_duocuc_cl/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5B315B3C-C0FB-445C-8AB7-F68F6B9E7C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C420395C-1786-4D7F-B55B-747C7E292174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C35A975-82F9-4BE7-8172-AE8AB972036F}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro de defectos" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Reporte de Defectos</t>
   </si>
@@ -98,55 +98,22 @@
     <t>Estado del defecto</t>
   </si>
   <si>
-    <t>Solicitado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear metodo que imprima resultado de precioTotalCompra </t>
-  </si>
-  <si>
     <t>Media</t>
-  </si>
-  <si>
-    <t>Incluir el resto de los datos en el metodo</t>
   </si>
   <si>
     <t>Restringir ingreso de tipo de FrutaVerdura a la nomenclatura correspondiente de 2 letras</t>
   </si>
   <si>
-    <t xml:space="preserve">Cambiar monto estatico por parametro iva de la interfaz IMontos </t>
-  </si>
-  <si>
-    <t>Clase Producto contiene metodos que no se piden ni se usan</t>
-  </si>
-  <si>
     <t>Baja</t>
-  </si>
-  <si>
-    <t>Ingresar descuento en base a categoria</t>
-  </si>
-  <si>
-    <t>precioTotalCompra() en CarritoCompra no tiene metodo para imprimir precio</t>
   </si>
   <si>
     <t>toString() en FrutaVerdura solo muestra tipo de fruta</t>
   </si>
   <si>
-    <t>calcularMontoIva() en FrutaVerdura es realizado por un valor estatico</t>
-  </si>
-  <si>
     <t xml:space="preserve">toString() en FrutaVerdura y Producto no se pide en modelo de clases </t>
   </si>
   <si>
-    <t xml:space="preserve">Eliminar metodos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar metodos hashCode y equals </t>
-  </si>
-  <si>
     <t>setTipo() en FrutaVerdura no tiene restricciones de input</t>
-  </si>
-  <si>
-    <t>setDescuentoCategoria() en Carne obtiene valores manuamente y no en base a categoria</t>
   </si>
   <si>
     <t>Nombre proyecto: Supermercado, "Number One"</t>
@@ -156,9 +123,6 @@
   </si>
   <si>
     <t>Herramienta utilizada: NetBeans 12.4, pruebas de caja negra</t>
-  </si>
-  <si>
-    <t>Nombre alumnos: Matias Luarte - Vicente zurita</t>
   </si>
   <si>
     <t>CP01</t>
@@ -185,26 +149,68 @@
     <t>CP08</t>
   </si>
   <si>
-    <t>Creacion de objeto Carne y FrutaVerdura permite valores inferiores a 0 en cantidad y precio</t>
-  </si>
-  <si>
     <t>Crear restricciones en métodos set que no permitan valores inferiores a 0</t>
   </si>
   <si>
     <t>CP09</t>
   </si>
   <si>
-    <t xml:space="preserve">Objeto Carne permite ingresar categorias distintas a A-B-C </t>
+    <t>Datos</t>
   </si>
   <si>
-    <t>Crear restricciones que no permitan ingresar categorias fuera del modelo de negocios</t>
+    <t>Reportado</t>
+  </si>
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar métodos </t>
+  </si>
+  <si>
+    <t>precioTotalCompra() en CarritoCompra no tiene método para imprimir precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crear método que imprima resultado de precioTotalCompra </t>
+  </si>
+  <si>
+    <t>Incluir el resto de los datos en el método</t>
+  </si>
+  <si>
+    <t>calcularMontoIva() en FrutaVerdura es realizado por un valor estático</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar monto estático por parámetro IVA de la interfaz IMontos </t>
+  </si>
+  <si>
+    <t>Clase Producto contiene métodos que no se piden ni se usan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar métodos hashCode y equals </t>
+  </si>
+  <si>
+    <t>Creación de objeto Carne y FrutaVerdura permite valores inferiores a 0 en cantidad y precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto Carne permite ingresar categorías distintas a A-B-C </t>
+  </si>
+  <si>
+    <t>Crear restricciones que no permitan ingresar categorías fuera del modelo de negocios</t>
+  </si>
+  <si>
+    <t>Nombre alumnos: Matías Luarte - Vicente zurita</t>
+  </si>
+  <si>
+    <t>setDescuentoCategoria() en Carne obtiene valores manualmente y no en base a categoría</t>
+  </si>
+  <si>
+    <t>Ingresar descuento en base a categoría</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +238,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -354,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -400,6 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2001,8 +2016,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4513670" y="3612810"/>
-          <a:ext cx="542271" cy="91440"/>
+          <a:off x="4242386" y="3760187"/>
+          <a:ext cx="564116" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2016,7 +2031,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="542271" y="45720"/>
+                <a:pt x="564116" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2070,8 +2085,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4771249" y="3644973"/>
-        <a:ext cx="27113" cy="27113"/>
+        <a:off x="4510341" y="3791804"/>
+        <a:ext cx="28205" cy="28205"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{63D76EA2-AB6F-4C79-88E3-AE5B553B1789}">
@@ -2081,8 +2096,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2388399" y="2175351"/>
-          <a:ext cx="542271" cy="1483179"/>
+          <a:off x="2031502" y="2262981"/>
+          <a:ext cx="564116" cy="1542926"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2096,13 +2111,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271135" y="0"/>
+                <a:pt x="282058" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="271135" y="1483179"/>
+                <a:pt x="282058" y="1542926"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="542271" y="1483179"/>
+                <a:pt x="564116" y="1542926"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2156,8 +2171,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2620055" y="2877460"/>
-        <a:ext cx="78960" cy="78960"/>
+        <a:off x="2272490" y="2993374"/>
+        <a:ext cx="82140" cy="82140"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4B783DBA-EE43-4B2A-93EE-8E85F82E879B}">
@@ -2167,8 +2182,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4513670" y="2871221"/>
-          <a:ext cx="542271" cy="91440"/>
+          <a:off x="4242386" y="2988724"/>
+          <a:ext cx="564116" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2182,7 +2197,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="542271" y="45720"/>
+                <a:pt x="564116" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2236,8 +2251,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4771249" y="2903384"/>
-        <a:ext cx="27113" cy="27113"/>
+        <a:off x="4510341" y="3020341"/>
+        <a:ext cx="28205" cy="28205"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1DDF595E-B5B3-4F85-AC6B-7A49E82A154B}">
@@ -2247,8 +2262,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2388399" y="2175351"/>
-          <a:ext cx="542271" cy="741589"/>
+          <a:off x="2031502" y="2262981"/>
+          <a:ext cx="564116" cy="771463"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2262,13 +2277,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271135" y="0"/>
+                <a:pt x="282058" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="271135" y="741589"/>
+                <a:pt x="282058" y="771463"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="542271" y="741589"/>
+                <a:pt x="564116" y="771463"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2322,8 +2337,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2636567" y="2523178"/>
-        <a:ext cx="45935" cy="45935"/>
+        <a:off x="2289667" y="2624820"/>
+        <a:ext cx="47785" cy="47785"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A2E036C4-DBC0-4BCE-B947-7938C2FA2593}">
@@ -2333,8 +2348,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4513670" y="2129631"/>
-          <a:ext cx="542271" cy="91440"/>
+          <a:off x="4242386" y="2217261"/>
+          <a:ext cx="564116" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2348,13 +2363,13 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271135" y="45720"/>
+                <a:pt x="282058" y="45720"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="271135" y="77041"/>
+                <a:pt x="282058" y="78302"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="542271" y="77041"/>
+                <a:pt x="564116" y="78302"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2408,8 +2423,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4771227" y="2161772"/>
-        <a:ext cx="27158" cy="27158"/>
+        <a:off x="4510317" y="2248855"/>
+        <a:ext cx="28252" cy="28252"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{53650F22-90EC-4AB5-A9E6-B344371FCC88}">
@@ -2419,8 +2434,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2388399" y="2129631"/>
-          <a:ext cx="542271" cy="91440"/>
+          <a:off x="2031502" y="2217261"/>
+          <a:ext cx="564116" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2434,7 +2449,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="542271" y="45720"/>
+                <a:pt x="564116" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2488,8 +2503,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2645978" y="2161794"/>
-        <a:ext cx="27113" cy="27113"/>
+        <a:off x="2299457" y="2248878"/>
+        <a:ext cx="28205" cy="28205"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{9F28C4A2-411E-49A8-8BDB-315C30740BD7}">
@@ -2499,8 +2514,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4513670" y="1388041"/>
-          <a:ext cx="542271" cy="91440"/>
+          <a:off x="4242386" y="1445798"/>
+          <a:ext cx="564116" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2514,13 +2529,13 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271135" y="45720"/>
+                <a:pt x="282058" y="45720"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="271135" y="77041"/>
+                <a:pt x="282058" y="78302"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="542271" y="77041"/>
+                <a:pt x="564116" y="78302"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2574,8 +2589,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4771227" y="1420182"/>
-        <a:ext cx="27158" cy="27158"/>
+        <a:off x="4510317" y="1477392"/>
+        <a:ext cx="28252" cy="28252"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{0C412CAE-977D-4573-B83C-2529D64DCC4E}">
@@ -2585,8 +2600,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2388399" y="1433761"/>
-          <a:ext cx="542271" cy="741589"/>
+          <a:off x="2031502" y="1491518"/>
+          <a:ext cx="564116" cy="771463"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2597,16 +2612,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="741589"/>
+                <a:pt x="0" y="771463"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271135" y="741589"/>
+                <a:pt x="282058" y="771463"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="271135" y="0"/>
+                <a:pt x="282058" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="542271" y="0"/>
+                <a:pt x="564116" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2660,8 +2675,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2636567" y="1781589"/>
-        <a:ext cx="45935" cy="45935"/>
+        <a:off x="2289667" y="1853357"/>
+        <a:ext cx="47785" cy="47785"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8DB57F31-CF52-404E-90F4-9125356FF194}">
@@ -2671,8 +2686,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4513670" y="646452"/>
-          <a:ext cx="542271" cy="91440"/>
+          <a:off x="4242386" y="674335"/>
+          <a:ext cx="564116" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2686,13 +2701,13 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271135" y="45720"/>
+                <a:pt x="282058" y="45720"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="271135" y="77041"/>
+                <a:pt x="282058" y="78302"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="542271" y="77041"/>
+                <a:pt x="564116" y="78302"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2746,8 +2761,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4771227" y="678593"/>
-        <a:ext cx="27158" cy="27158"/>
+        <a:off x="4510317" y="705928"/>
+        <a:ext cx="28252" cy="28252"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{694BC8C3-6CEB-4210-BF0B-7306DFC930F3}">
@@ -2757,8 +2772,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2388399" y="692172"/>
-          <a:ext cx="542271" cy="1483179"/>
+          <a:off x="2031502" y="720055"/>
+          <a:ext cx="564116" cy="1542926"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2769,16 +2784,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="1483179"/>
+                <a:pt x="0" y="1542926"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="271135" y="1483179"/>
+                <a:pt x="282058" y="1542926"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="271135" y="0"/>
+                <a:pt x="282058" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="542271" y="0"/>
+                <a:pt x="564116" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2832,8 +2847,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2620055" y="1394281"/>
-        <a:ext cx="78960" cy="78960"/>
+        <a:off x="2272490" y="1450448"/>
+        <a:ext cx="82140" cy="82140"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{81D5B84E-6BE0-488C-832D-A8DA8D2C7D9C}">
@@ -2843,8 +2858,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="202606" y="1762034"/>
-          <a:ext cx="3544952" cy="826633"/>
+          <a:off x="-242341" y="1833015"/>
+          <a:ext cx="3687754" cy="859932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2910,8 +2925,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="202606" y="1762034"/>
-        <a:ext cx="3544952" cy="826633"/>
+        <a:off x="-242341" y="1833015"/>
+        <a:ext cx="3687754" cy="859932"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7976B0DA-7F78-450E-8AE3-662150B5EEAE}">
@@ -2921,8 +2936,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2930671" y="424706"/>
-          <a:ext cx="1582999" cy="534931"/>
+          <a:off x="2595618" y="441815"/>
+          <a:ext cx="1646767" cy="556479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2988,8 +3003,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2930671" y="424706"/>
-        <a:ext cx="1582999" cy="534931"/>
+        <a:off x="2595618" y="441815"/>
+        <a:ext cx="1646767" cy="556479"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A21A6926-B908-4485-96D2-D69E2A0F3178}">
@@ -2999,8 +3014,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5055942" y="479781"/>
-          <a:ext cx="2164341" cy="487424"/>
+          <a:off x="4806502" y="499108"/>
+          <a:ext cx="2251528" cy="507059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3066,8 +3081,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5055942" y="479781"/>
-        <a:ext cx="2164341" cy="487424"/>
+        <a:off x="4806502" y="499108"/>
+        <a:ext cx="2251528" cy="507059"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{807DB013-F690-4D56-A7B7-86955F551061}">
@@ -3077,8 +3092,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2930671" y="1166296"/>
-          <a:ext cx="1582999" cy="534931"/>
+          <a:off x="2595618" y="1213278"/>
+          <a:ext cx="1646767" cy="556479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3144,8 +3159,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2930671" y="1166296"/>
-        <a:ext cx="1582999" cy="534931"/>
+        <a:off x="2595618" y="1213278"/>
+        <a:ext cx="1646767" cy="556479"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{B2D62580-5B24-441B-90A9-7447F939058D}">
@@ -3155,8 +3170,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5055942" y="1221370"/>
-          <a:ext cx="2164341" cy="487424"/>
+          <a:off x="4806502" y="1270571"/>
+          <a:ext cx="2251528" cy="507059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3222,8 +3237,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5055942" y="1221370"/>
-        <a:ext cx="2164341" cy="487424"/>
+        <a:off x="4806502" y="1270571"/>
+        <a:ext cx="2251528" cy="507059"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{7086A2D0-93F4-4D7D-90BB-E6B40AC5D9D0}">
@@ -3233,8 +3248,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2930671" y="1907885"/>
-          <a:ext cx="1582999" cy="534931"/>
+          <a:off x="2595618" y="1984741"/>
+          <a:ext cx="1646767" cy="556479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3300,8 +3315,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2930671" y="1907885"/>
-        <a:ext cx="1582999" cy="534931"/>
+        <a:off x="2595618" y="1984741"/>
+        <a:ext cx="1646767" cy="556479"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C9821ED1-7E64-40C5-A2FB-435919AD4E5A}">
@@ -3311,8 +3326,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5055942" y="1962960"/>
-          <a:ext cx="2164341" cy="487424"/>
+          <a:off x="4806502" y="2042034"/>
+          <a:ext cx="2251528" cy="507059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3378,8 +3393,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5055942" y="1962960"/>
-        <a:ext cx="2164341" cy="487424"/>
+        <a:off x="4806502" y="2042034"/>
+        <a:ext cx="2251528" cy="507059"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{833A11FC-3293-4373-B47B-79811B29138F}">
@@ -3389,8 +3404,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2930671" y="2649475"/>
-          <a:ext cx="1582999" cy="534931"/>
+          <a:off x="2595618" y="2756204"/>
+          <a:ext cx="1646767" cy="556479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3456,8 +3471,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2930671" y="2649475"/>
-        <a:ext cx="1582999" cy="534931"/>
+        <a:off x="2595618" y="2756204"/>
+        <a:ext cx="1646767" cy="556479"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{19597AE4-2372-4E4D-9E46-3BD6AAEACC16}">
@@ -3467,8 +3482,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5055942" y="2673228"/>
-          <a:ext cx="2164341" cy="487424"/>
+          <a:off x="4806502" y="2780914"/>
+          <a:ext cx="2251528" cy="507059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3534,8 +3549,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5055942" y="2673228"/>
-        <a:ext cx="2164341" cy="487424"/>
+        <a:off x="4806502" y="2780914"/>
+        <a:ext cx="2251528" cy="507059"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{43DFBD47-131F-46CF-8189-37D4A2F57628}">
@@ -3545,8 +3560,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2930671" y="3391064"/>
-          <a:ext cx="1582999" cy="534931"/>
+          <a:off x="2595618" y="3527667"/>
+          <a:ext cx="1646767" cy="556479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3612,8 +3627,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2930671" y="3391064"/>
-        <a:ext cx="1582999" cy="534931"/>
+        <a:off x="2595618" y="3527667"/>
+        <a:ext cx="1646767" cy="556479"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{8D698A25-1CA2-47D5-B8DD-B0A9761A11BD}">
@@ -3623,8 +3638,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5055942" y="3414818"/>
-          <a:ext cx="2164341" cy="487424"/>
+          <a:off x="4806502" y="3552377"/>
+          <a:ext cx="2251528" cy="507059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3690,8 +3705,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="5055942" y="3414818"/>
-        <a:ext cx="2164341" cy="487424"/>
+        <a:off x="4806502" y="3552377"/>
+        <a:ext cx="2251528" cy="507059"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5121,8 +5136,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8629650" y="3684270"/>
-          <a:ext cx="8951909" cy="4976470"/>
+          <a:off x="8077200" y="3733800"/>
+          <a:ext cx="8616629" cy="5182210"/>
           <a:chOff x="286808" y="1169878"/>
           <a:chExt cx="8616629" cy="5182210"/>
         </a:xfrm>
@@ -9697,19 +9712,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="5.26171875" customWidth="1"/>
-    <col min="4" max="4" width="91.83984375" customWidth="1"/>
-    <col min="5" max="5" width="11.41796875" customWidth="1"/>
-    <col min="8" max="8" width="84.578125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="91.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
@@ -9719,28 +9734,30 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
@@ -9760,166 +9777,184 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="12" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
+    </row>
+    <row r="13" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="3" t="s">
+        <v>34</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
+      <c r="E13" s="3" t="s">
+        <v>44</v>
       </c>
-      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C14" s="3" t="s">
-        <v>47</v>
+    <row r="16" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>37</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>34</v>
+      <c r="E16" s="3" t="s">
+        <v>44</v>
       </c>
-      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="F17" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>55</v>
+      <c r="E19" s="3" t="s">
+        <v>42</v>
       </c>
-      <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -9938,19 +9973,19 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.15625" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="2:16" ht="26.1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
@@ -9961,7 +9996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:16" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -9972,7 +10007,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
@@ -9983,7 +10018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:16" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="13" t="s">
         <v>15</v>
       </c>
@@ -9994,7 +10029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:16" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
@@ -10005,7 +10040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J9" s="16" t="s">
         <v>22</v>
       </c>
